--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.9206724633712711</v>
+        <v>-0.9714294676670578</v>
       </c>
       <c r="D2">
-        <v>0.3573537169177321</v>
+        <v>0.3418946047018387</v>
       </c>
       <c r="E2">
         <v>1.112939952066234</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.1816025140282178</v>
+        <v>0.1653503009920105</v>
       </c>
       <c r="D3">
-        <v>0.8559165961460771</v>
+        <v>0.8701782837629068</v>
       </c>
       <c r="E3">
         <v>1.112939952066234</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.262454063276293</v>
+        <v>1.109888893704867</v>
       </c>
       <c r="D4">
-        <v>0.2069607627732608</v>
+        <v>0.2790316597188462</v>
       </c>
       <c r="E4">
         <v>1.112939952066234</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.4222552988214799</v>
+        <v>0.3876083195771526</v>
       </c>
       <c r="D5">
-        <v>0.6728927458573484</v>
+        <v>0.7020306402195642</v>
       </c>
       <c r="E5">
         <v>1.112939952066234</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.8733065770758375</v>
+        <v>0.7544342953799321</v>
       </c>
       <c r="D6">
-        <v>0.3826208777239852</v>
+        <v>0.4585885903545193</v>
       </c>
       <c r="E6">
         <v>1.152414492595852</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.975077647235371</v>
+        <v>2.367574704637302</v>
       </c>
       <c r="D7">
-        <v>0.04842291444573887</v>
+        <v>0.02711771962191434</v>
       </c>
       <c r="E7">
         <v>1.152414492595852</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.236040822852842</v>
+        <v>1.165845893028361</v>
       </c>
       <c r="D8">
-        <v>0.216616283016563</v>
+        <v>0.2561610537089749</v>
       </c>
       <c r="E8">
         <v>1.152414492595852</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.9897329977358896</v>
+        <v>0.706255693091176</v>
       </c>
       <c r="D9">
-        <v>0.3224472495780772</v>
+        <v>0.4874419189203691</v>
       </c>
       <c r="E9">
         <v>1.104617133759961</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.244891877492595</v>
+        <v>0.2815029591027292</v>
       </c>
       <c r="D10">
-        <v>0.8065700765688824</v>
+        <v>0.7809554919050159</v>
       </c>
       <c r="E10">
         <v>1.104617133759961</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.694179074645395</v>
+        <v>-0.6684658283334465</v>
       </c>
       <c r="D11">
-        <v>0.4876659480622563</v>
+        <v>0.5107897776554307</v>
       </c>
       <c r="E11">
         <v>1.056056548639601</v>
